--- a/unit_test/peer_assessment.xlsx
+++ b/unit_test/peer_assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balandongiv\IdeaProjects\krr\peer_assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balandongiv\IdeaProjects\pygla\unit_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DFF8BB-5629-4911-826B-23D52A1A764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791DFD8-1692-40E6-9E43-FDA798666EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>std1 ok la according to std3</t>
+  </si>
+  <si>
+    <t>assessor_student_id</t>
   </si>
 </sst>
 </file>
@@ -388,14 +391,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AI5" totalsRowShown="0">
-  <autoFilter ref="A1:AI5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AJ5" totalsRowShown="0">
+  <autoFilter ref="A1:AJ5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="29"/>
+    <tableColumn id="36" xr3:uid="{9E9FD41C-2A64-43D7-9298-B80D43F24485}" name="assessor_student_id"/>
     <tableColumn id="35" xr3:uid="{FFE16E42-C2F6-47D1-BCDD-3A801B1DAB03}" name="Group Name_x000a_"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Peer Name (P1)_x000a_" dataDxfId="28"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Peers Student ID (P1)_x000a_" dataDxfId="27"/>
@@ -728,20 +732,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="35" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" customWidth="1"/>
+    <col min="8" max="36" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,97 +762,100 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -864,83 +871,83 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>200</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>300</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
       <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
       <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>400</v>
       </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="s">
         <v>37</v>
@@ -952,10 +959,13 @@
         <v>37</v>
       </c>
       <c r="AI2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -972,17 +982,17 @@
         <v>48</v>
       </c>
       <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
         <v>34</v>
       </c>
@@ -999,20 +1009,20 @@
         <v>34</v>
       </c>
       <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
         <v>54</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
       <c r="T3" t="s">
         <v>37</v>
       </c>
@@ -1029,20 +1039,20 @@
         <v>37</v>
       </c>
       <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>49</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>311</v>
       </c>
-      <c r="AC3" t="s">
-        <v>37</v>
-      </c>
       <c r="AD3" t="s">
         <v>37</v>
       </c>
@@ -1050,19 +1060,22 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" t="s">
-        <v>37</v>
-      </c>
       <c r="AH3" t="s">
         <v>37</v>
       </c>
       <c r="AI3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1079,17 +1092,17 @@
         <v>49</v>
       </c>
       <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>400</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
       <c r="J4" t="s">
         <v>34</v>
       </c>
@@ -1106,20 +1119,20 @@
         <v>34</v>
       </c>
       <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>57</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>111</v>
       </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
       <c r="T4" t="s">
         <v>37</v>
       </c>
@@ -1136,13 +1149,16 @@
         <v>37</v>
       </c>
       <c r="Y4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
